--- a/bin/Debug/Lista De Compras.xlsx
+++ b/bin/Debug/Lista De Compras.xlsx
@@ -14,153 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <x:si>
     <x:t>Líxivia</x:t>
   </x:si>
   <x:si>
-    <x:t>Queijo T.Nostra</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sardinhas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MÃE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Desodorizante R</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bacon</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Polpa Tomate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cif Líxivia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Gel Banho</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fiambre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Molho Inglês</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shampoo R</x:t>
+    <x:t>Óleo</x:t>
   </x:si>
   <x:si>
     <x:t>Queijo Cheddar</x:t>
   </x:si>
   <x:si>
-    <x:t>Molho Soja</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shampoo J</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chouriço</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Heinz Coentro Alho</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Shampoo L</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salsichas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Azeite</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Papel Coz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Azeitonas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Óleo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Papel Hig</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chocolate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vinagre</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Papel Alumínio</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Café</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Arroz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bloco WC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Açúcar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Massa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ariel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Farinha</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Esparguete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sabão Loiça</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sunquick</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ovos</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Geleias</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Iogurtes</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Natas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salsichas Peru</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hamburgueres</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bolo do Caco</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Feijão</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bolo Limão</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pão de Forma</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Atum</x:t>
+    <x:t>Sacos sandes</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -170,7 +35,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="3">
+  <x:fonts count="2">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -179,14 +44,6 @@
       <x:family val="2"/>
     </x:font>
     <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="12"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:b/>
       <x:vertAlign val="baseline"/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
@@ -221,27 +78,20 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="3">
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -540,199 +390,39 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G16"/>
+  <x:dimension ref="A1:A4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="8" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="7" max="16384" width="9.140625" style="1" customWidth="1"/>
     <x:col min="1" max="1" width="20.710625" style="1" customWidth="1"/>
     <x:col min="2" max="2" width="1.710625" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="20.710625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
     <x:col min="4" max="4" width="1.710625" style="1" customWidth="1"/>
-    <x:col min="5" max="5" width="20.710625" style="1" customWidth="1"/>
+    <x:col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
     <x:col min="6" max="6" width="1.710625" style="1" customWidth="1"/>
-    <x:col min="7" max="7" width="20.710625" style="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:7">
+    <x:row r="1" spans="1:6">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C1" s="1" t="s">
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="A2" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E1" s="1" t="s">
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="A3" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="G1" s="2" t="s">
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="A4" s="1" t="s">
         <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:7">
-      <x:c r="A2" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E2" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="G2" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:7">
-      <x:c r="A3" s="1" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E3" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:7">
-      <x:c r="A4" s="1" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E4" s="1" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:7">
-      <x:c r="A5" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E5" s="1" t="s">
-        <x:v>16</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:7">
-      <x:c r="A6" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C6" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="E6" s="1" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:7">
-      <x:c r="A7" s="1" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C7" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E7" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:7">
-      <x:c r="A8" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C8" s="1" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E8" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:7">
-      <x:c r="A9" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C9" s="1" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E9" s="1" t="s">
-        <x:v>28</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:7">
-      <x:c r="A10" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="C10" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="E10" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:7">
-      <x:c r="A11" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C11" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E11" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:7">
-      <x:c r="A12" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C12" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="E12" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:7">
-      <x:c r="A13" s="1" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C13" s="1" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="E13" s="1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:7">
-      <x:c r="A14" s="1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C14" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="E14" s="1" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:7">
-      <x:c r="A15" s="1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C15" s="1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="E15" s="1" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:7">
-      <x:c r="A16" s="1" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C16" s="1" t="s">
-        <x:v>48</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
